--- a/docs/StructureDefinition-MessageHeaderRevisarLE.xlsx
+++ b/docs/StructureDefinition-MessageHeaderRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
